--- a/biology/Zoologie/Ceroplesis_militaris/Ceroplesis_militaris.xlsx
+++ b/biology/Zoologie/Ceroplesis_militaris/Ceroplesis_militaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceroplesis militaris est une espèce de  coléoptères africain de la famille des  Cerambycidae (capricornes) appartenant à la sous-famille des  Lamiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceroplesis militaris fait environ 30 mm de long. Son corps est noir, avec deux larges rayures traversant les élytres. Ses plantes hôtes comprennent des micocouliers, des acacias et Maesopsis eminii (en).
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Afrique du Sud, en République démocratique du Congo, en Éthiopie, au Kenya, au Malawi, au Mozambique, en Namibie,  en Ouganda, en Tanzanie, en Zambie et au Zimbabwe.
 </t>
@@ -573,7 +589,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ceroplesis militaris irregularis Harold, 1878
 Ceroplesis militaris militaris Gerstäcker, 1855</t>
